--- a/PROJECT_ROSS_CYRIAC.xlsx
+++ b/PROJECT_ROSS_CYRIAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{327D6062-FE37-438B-B400-9031DB6F0D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1E9FFE-870A-49B3-B4F6-3FB9EB483A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{0D97E33D-61A6-471C-AB83-CA1D003FFBC7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="6" xr2:uid="{0D97E33D-61A6-471C-AB83-CA1D003FFBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Page" sheetId="1" r:id="rId1"/>
